--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:02+00:00</t>
+    <t>2023-03-06T10:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:50+00:00</t>
+    <t>2023-03-06T10:21:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:21:46+00:00</t>
+    <t>2023-03-07T14:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:51:30+00:00</t>
+    <t>2023-03-08T07:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:25:49+00:00</t>
+    <t>2023-03-08T07:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:58:39+00:00</t>
+    <t>2023-03-09T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T09:15:18+00:00</t>
+    <t>2023-03-09T12:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="132">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T12:07:06+00:00</t>
+    <t>2023-03-09T16:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -418,27 +418,6 @@
   <si>
     <t xml:space="preserve">date
 </t>
-  </si>
-  <si>
-    <t>Extension.extension:temporalityClosing</t>
-  </si>
-  <si>
-    <t>temporalityClosing</t>
-  </si>
-  <si>
-    <t>Extension.extension:temporalityClosing.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:temporalityClosing.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:temporalityClosing.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:temporalityClosing.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:temporalityClosing.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>base64Binary
@@ -745,7 +724,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -754,7 +733,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="67.46484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.0703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2357,20 +2336,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>
@@ -2385,22 +2362,24 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>73</v>
@@ -2442,30 +2421,30 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2476,7 +2455,7 @@
         <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2488,13 +2467,13 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2545,7 +2524,7 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -2554,632 +2533,12 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="Y21" s="2"/>
-      <c r="Z21" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O22" s="2"/>
-      <c r="P22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK23" t="s" s="2">
         <v>96</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:26:30+00:00</t>
+    <t>2023-03-10T10:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:03:34+00:00</t>
+    <t>2023-03-10T14:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:03:40+00:00</t>
+    <t>2023-03-10T16:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:06:49+00:00</t>
+    <t>2023-03-13T07:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T07:40:36+00:00</t>
+    <t>2023-03-13T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T11:14:34+00:00</t>
+    <t>2023-03-13T13:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T13:58:57+00:00</t>
+    <t>2023-03-13T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="138">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:14:07+00:00</t>
+    <t>2023-03-13T14:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR pour définir les période d'ouverture et de fermeture de l'organisation interne</t>
+    <t>Extension créée dans le cadre du ROR pour définir la date de création et les périodes d'ouverture et de fermeture de l'organisation.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -418,6 +418,24 @@
   <si>
     <t xml:space="preserve">date
 </t>
+  </si>
+  <si>
+    <t>Extension.extension:creationDate</t>
+  </si>
+  <si>
+    <t>creationDate</t>
+  </si>
+  <si>
+    <t>Extension.extension:creationDate.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:creationDate.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:creationDate.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:creationDate.value[x]</t>
   </si>
   <si>
     <t>base64Binary
@@ -724,7 +742,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2336,18 +2354,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>
@@ -2362,24 +2382,22 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>73</v>
@@ -2421,30 +2439,30 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2455,7 +2473,7 @@
         <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2467,13 +2485,13 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2524,21 +2542,540 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI17" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AJ20" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AK20" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>96</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:59:56+00:00</t>
+    <t>2023-03-13T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T15:28:19+00:00</t>
+    <t>2023-03-14T07:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T07:46:37+00:00</t>
+    <t>2023-03-15T15:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:36:42+00:00</t>
+    <t>2023-03-15T15:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:41:30+00:00</t>
+    <t>2023-03-21T15:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T15:32:49+00:00</t>
+    <t>2023-03-27T14:30:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:30:28+00:00</t>
+    <t>2023-03-27T14:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:49:55+00:00</t>
+    <t>2023-03-28T07:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T07:26:22+00:00</t>
+    <t>2023-03-28T08:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T08:50:23+00:00</t>
+    <t>2023-03-28T13:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T13:00:55+00:00</t>
+    <t>2023-03-29T15:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T15:26:54+00:00</t>
+    <t>2023-03-30T07:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T07:20:01+00:00</t>
+    <t>2023-03-30T08:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T08:12:51+00:00</t>
+    <t>2023-03-31T06:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-period.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-period</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-period</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T06:57:00+00:00</t>
+    <t>2023-04-05T09:21:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
